--- a/lambton/2020/summer/ese3025/sched_and_eval_timetble_excel.xlsx
+++ b/lambton/2020/summer/ese3025/sched_and_eval_timetble_excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t xml:space="preserve">ESE2014</t>
   </si>
@@ -31,10 +31,13 @@
     <t xml:space="preserve">Topic</t>
   </si>
   <si>
-    <t xml:space="preserve">Outline Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Guidelines</t>
+    <t xml:space="preserve">Outline Ref.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach Materials</t>
   </si>
   <si>
     <t xml:space="preserve">Homework/Tests</t>
@@ -43,13 +46,85 @@
     <t xml:space="preserve">Evaluation</t>
   </si>
   <si>
+    <t xml:space="preserve">Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External links</t>
+  </si>
+  <si>
     <t xml:space="preserve">remedial software review</t>
   </si>
   <si>
-    <t xml:space="preserve">review basic data structures, algorithms (stacks, queues, linked lists and BSTs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pthreads</t>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although students should have had some exposure to pthreads in ESE2025, the coverage may not have been in-depth. Using pthreads is a great introduction to RTOS, because of the similarities in writing tasks and threads and creating applications. Moreover, with Linux, pthreads are more accessible, and allow the students to conveniently run embedded pthread applications they develop on their desktop machines (simply by building the same application) on their Linux embedded platform (e.g., Beaglebone). This is also a great opportunity to introduce/reinforce the use of make and Makefiles, since the same makefile can be used to build the application on desktop and embedded system (see make tutorial link, Week 2). Working in pthreads also provides an opportunity to review C, and how to build modular code (e.g., with header files and source files in separate directories) and using github.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First half of RTS_Week_1 PDF notes, in addition to any week 1 supplementary slides (see “course notes” folder on Moodle Resource page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have the students get their source code development tools up and running (we generally use Eclipse IDE running on a Linux host machine); have the students work on the pthread code provided (see external links)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see Week 1 Resource Page, “homework”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students should study and experiment with the provided pthreads code (see github link). They can run the code on both the host machine and on an embedded Linux platform (e.g., Beaglebone), to compare the applications. They should find somewhat more even time slicing between threads on a Linux platform (like the Beaglebone) if a PREEMPT kernel is installed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/takiszourntos/teaching/tree/master/lambton/2020/summer/ese3025/week_1/pthreads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuing work on pthreads, and C-building exercises, there is an opportunity to discuss context switches, timing diagrams and resource allocation for tasks/threads. How does a kernel or scheduler decide which tasks/threads to run and when? What factors affect the speed with which a task can execute? Students should consider memory access latencies, I/O latencies, multi-core CPUs, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second half of RTS_Week_1 + any Week 2 supplementary slides, GNU-Make Tutorial document (from GNU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students should undertake a challenging pthreads project, to help develop their C-language and Linux skills, as well as their familiarity with professional code-developer practices and tools. Students should complete their understanding of GNU-make in order to develop their application on both host machine and embedded system (and compare performance). An example project is the multi-threaded implementation of Conway’s Game of Life uses the ncurses library for visual display. Please see the provided link for the “starter code” and resources for the students.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GNU-make tutorial link: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/takiszourntos/teaching/tree/master/lambton/2020/summer/ese3025/week_2/make-tutorial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pthread implementation of Conway’s Game of Life (starter code-project and other resource files): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/takiszourntos/teaching/tree/master/lambton/2020/summer/ese3025/week_2/project</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Contrast cooperative and preemptive modes of multi-tasking operating systems;</t>
@@ -58,10 +133,7 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">two assignments using pthreads on an embedded Linux platform; attempt to achieve “real-time” behaviour by using a fully preemptive kernel (students will also learn how to recompile a new kernel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab #1 </t>
+    <t xml:space="preserve">Coverage of multi-tasking o</t>
   </si>
   <si>
     <t xml:space="preserve">Explain the differences between hard and soft real-time operation;</t>
@@ -107,9 +179,6 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab #2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discuss the idle task and its practical implications;
 </t>
   </si>
@@ -117,6 +186,9 @@
     <t xml:space="preserve">1.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Lab #1: major pthreads project due</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discuss the concept of scheduler overhead</t>
   </si>
   <si>
@@ -133,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">varations on FreeRTOS Blinky; using multiple task functions, using a single task function, using vTaskDelay() and vTaskDelayUntil() along with a carefully planned timing diagram, using a Mutex, using a Queue (to produce a specific pattern of lights), using timers, and, finally, using GPIO interrupts to vary blinking parameters from external buttons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab #2</t>
   </si>
   <si>
     <t xml:space="preserve">Discuss the operation of a Linux preemptive kernel;</t>
@@ -306,11 +381,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -328,122 +404,35 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -451,23 +440,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,31 +465,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -526,132 +483,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -660,21 +560,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F60"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="38.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -692,14 +596,23 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -707,11 +620,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,588 +649,646 @@
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="180.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>10</v>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="G15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="11" t="s">
-        <v>14</v>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="15"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="B17" s="11" t="s">
-        <v>16</v>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="15"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
+      <c r="B18" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="15"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>20</v>
+      <c r="B19" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
+      <c r="B20" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="11" t="s">
-        <v>24</v>
+      <c r="B21" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>26</v>
+      <c r="B22" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="11" t="s">
-        <v>29</v>
+      <c r="B23" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="G23" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="11" t="s">
-        <v>31</v>
+      <c r="B24" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="11" t="s">
-        <v>33</v>
+      <c r="B25" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="F25" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="11" t="s">
-        <v>35</v>
+      <c r="B26" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="E26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>37</v>
+      <c r="B27" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>47</v>
+      <c r="B31" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="11" t="s">
-        <v>49</v>
+      <c r="B32" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
-      <c r="B33" s="11" t="s">
-        <v>51</v>
+      <c r="B33" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="11" t="s">
-        <v>53</v>
+      <c r="B34" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
-      <c r="B35" s="11" t="s">
-        <v>55</v>
+      <c r="B35" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>57</v>
+      <c r="B36" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>65</v>
+      <c r="B40" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
-      <c r="B41" s="11" t="s">
-        <v>68</v>
+      <c r="B41" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="F41" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>70</v>
+      <c r="B42" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
-      <c r="B43" s="11" t="s">
-        <v>73</v>
+      <c r="B43" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="4" t="s">
-        <v>75</v>
+      <c r="E44" s="15"/>
+      <c r="F44" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="15"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>76</v>
+      <c r="B48" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="F48" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
-      <c r="B49" s="11" t="s">
-        <v>79</v>
+      <c r="B49" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>81</v>
+      <c r="B50" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="F50" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
-      <c r="B51" s="11" t="s">
-        <v>84</v>
+      <c r="B51" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="F51" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
-      <c r="B52" s="11" t="s">
-        <v>86</v>
+      <c r="B52" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="F52" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="10" t="s">
-        <v>89</v>
+      <c r="E53" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="13"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>88</v>
+      <c r="B57" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>90</v>
+      <c r="E57" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="44">
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="H10:H14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D25"/>
-    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="D26:D41"/>
+    <mergeCell ref="E26:E41"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="E42:E52"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
     <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" display="https://github.com/takiszourntos/teaching/tree/master/lambton/2020/summer/ese3025/week_2/make-tutorial"/>
+    <hyperlink ref="I11" r:id="rId2" display="https://github.com/takiszourntos/teaching/tree/master/lambton/2020/summer/ese3025/week_2/project"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
